--- a/document/数据库/数据/t_copy_right.xlsx
+++ b/document/数据库/数据/t_copy_right.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
   <si>
     <t>code</t>
   </si>
@@ -360,6 +360,10 @@
   </si>
   <si>
     <t>2012R11S133234</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -748,512 +752,611 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="60.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
         <v>1740948</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
         <v>8245517</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
         <v>1152761</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
         <v>4232216</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
         <v>8576189</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
         <v>2795431</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
         <v>2334113</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
         <v>8742779</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
         <v>3198650</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
         <v>2860248</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
         <v>6509006</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>1197413</v>
       </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
         <v>1389344</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
         <v>6066184</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
         <v>9637882</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
         <v>9135984</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
         <v>763615</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
         <v>4209737</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
         <v>2601657</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
         <v>5412001</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
         <v>4607177</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
         <v>7733599</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
         <v>8182660</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
         <v>3801250</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
         <v>9478351</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
         <v>2016406</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
         <v>1898414</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
         <v>3988087</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
         <v>7838371</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
         <v>734965</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
         <v>1099683</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
         <v>1099684</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
         <v>1078683</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/document/数据库/数据/t_copy_right.xlsx
+++ b/document/数据库/数据/t_copy_right.xlsx
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
